--- a/Mail/ChinaUnion_Agent/Template/ImportContactUs_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportContactUs_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>代理商编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@chinaunicom.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +181,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,21 +222,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,18 +536,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I17" sqref="I17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +573,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -560,8 +602,11 @@
       <c r="H2" s="1">
         <v>62132345</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -586,8 +631,11 @@
       <c r="H3" s="1">
         <v>62132345</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -608,8 +656,11 @@
       <c r="H4" s="1">
         <v>62132345</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -630,8 +681,11 @@
       <c r="H5" s="1">
         <v>62132345</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -656,8 +710,11 @@
       <c r="H6" s="1">
         <v>62132345</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -682,8 +739,11 @@
       <c r="H7" s="1">
         <v>62132345</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -708,8 +768,11 @@
       <c r="H8" s="1">
         <v>62132345</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,8 +793,11 @@
       <c r="H9" s="1">
         <v>62132345</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -752,8 +818,11 @@
       <c r="H10" s="1">
         <v>62132345</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -774,8 +843,11 @@
       <c r="H11" s="1">
         <v>62132345</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -796,9 +868,16 @@
       <c r="H12" s="1">
         <v>62132345</v>
       </c>
+      <c r="I12" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3:I12" r:id="rId2" display="test@chinaunicom.cn"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Mail/ChinaUnion_Agent/Template/ImportContactUs_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportContactUs_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>代理商编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +146,14 @@
   </si>
   <si>
     <t>test@chinaunicom.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1;C33;C34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6213234;512345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +257,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,12 +546,13 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -559,13 +567,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -574,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -597,13 +605,13 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1">
-        <v>62132345</v>
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -626,13 +634,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1">
         <v>62132345</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -651,13 +659,13 @@
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1">
         <v>62132345</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -676,13 +684,13 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>62132345</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -705,13 +713,13 @@
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
         <v>62132345</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -734,13 +742,13 @@
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>62132345</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -763,13 +771,13 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1">
         <v>62132345</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -788,13 +796,13 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1">
         <v>62132345</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -813,13 +821,13 @@
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1">
         <v>62132345</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -838,13 +846,13 @@
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1">
         <v>62132345</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -863,13 +871,13 @@
         <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1">
         <v>62132345</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
